--- a/EDA_Entrega/data/correlation_age_heart_condition.xlsx
+++ b/EDA_Entrega/data/correlation_age_heart_condition.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,10 +456,15 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>P_Value</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Regression_Coeff</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Intercept</t>
         </is>
@@ -482,12 +487,15 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.6392666734164717</v>
+        <v>-0.6392666734164772</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>-17643695.97584676</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>1518935356.247098</v>
       </c>
     </row>
@@ -508,12 +516,15 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-0.6392666693715219</v>
+        <v>-0.6392666693715612</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
         <v>-17643.69601190784</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>1518935.341933599</v>
       </c>
     </row>
@@ -534,12 +545,15 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.06797704513154272</v>
+        <v>-0.0679770451315265</v>
       </c>
       <c r="E4" t="n">
+        <v>9.283686178865583e-76</v>
+      </c>
+      <c r="F4" t="n">
         <v>-0.7652831970096656</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>245.2087174916618</v>
       </c>
     </row>
@@ -560,12 +574,15 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.03880990854597959</v>
+        <v>0.038809908545978</v>
       </c>
       <c r="E5" t="n">
+        <v>3.06483431931164e-22</v>
+      </c>
+      <c r="F5" t="n">
         <v>0.000237521468781012</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.0375324539820985</v>
       </c>
     </row>
@@ -586,12 +603,15 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.04585068120605526</v>
+        <v>0.04585068120606055</v>
       </c>
       <c r="E6" t="n">
+        <v>2.090034314570427e-30</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.0006918029835084689</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.1630260642494923</v>
       </c>
     </row>
@@ -612,12 +632,15 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.1135925793109205</v>
+        <v>-0.1135925793109155</v>
       </c>
       <c r="E7" t="n">
+        <v>5.449220933888284e-183</v>
+      </c>
+      <c r="F7" t="n">
         <v>-0.003628302894337404</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>4.20306520769591</v>
       </c>
     </row>
@@ -638,12 +661,15 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-0.02077985850582427</v>
+        <v>-0.02077985850582354</v>
       </c>
       <c r="E8" t="n">
+        <v>1.454556858502322e-07</v>
+      </c>
+      <c r="F8" t="n">
         <v>-0.05764354339395994</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>84.62361774212538</v>
       </c>
     </row>
@@ -664,12 +690,15 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-0.1762093524643975</v>
+        <v>-0.1762093524644067</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>-0.2567698936329929</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>38.57220043160437</v>
       </c>
     </row>
@@ -690,12 +719,15 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-0.03319777866626828</v>
+        <v>-0.03319777866626737</v>
       </c>
       <c r="E10" t="n">
+        <v>1.080501613966627e-16</v>
+      </c>
+      <c r="F10" t="n">
         <v>-0.006526983063848982</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>2.495613447656137</v>
       </c>
     </row>
@@ -716,12 +748,15 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.07098825712891187</v>
+        <v>0.07098825712886669</v>
       </c>
       <c r="E11" t="n">
+        <v>1.539804815125339e-70</v>
+      </c>
+      <c r="F11" t="n">
         <v>0.001579882571480804</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.4547324115560153</v>
       </c>
     </row>
@@ -742,12 +777,15 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.006487510922398249</v>
+        <v>0.006487510922398295</v>
       </c>
       <c r="E12" t="n">
+        <v>0.1051055407163807</v>
+      </c>
+      <c r="F12" t="n">
         <v>0.0009696706953993125</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>3.832055588267772</v>
       </c>
     </row>
@@ -768,12 +806,15 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-0.07901512175114291</v>
+        <v>-0.07901512175114714</v>
       </c>
       <c r="E13" t="n">
+        <v>2.045979944724612e-88</v>
+      </c>
+      <c r="F13" t="n">
         <v>-0.1095356688549964</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>30.06848411337404</v>
       </c>
     </row>
@@ -794,12 +835,15 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.05156903659672064</v>
+        <v>0.05156903659671295</v>
       </c>
       <c r="E14" t="n">
+        <v>5.093484483209217e-38</v>
+      </c>
+      <c r="F14" t="n">
         <v>0.003387041706252027</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.658694424722867</v>
       </c>
     </row>
@@ -820,12 +864,15 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.06336700999867925</v>
+        <v>0.0633670099986913</v>
       </c>
       <c r="E15" t="n">
+        <v>7.075186610114199e-58</v>
+      </c>
+      <c r="F15" t="n">
         <v>0.001646417488358862</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0.3552677434727597</v>
       </c>
     </row>
@@ -846,12 +893,15 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.213182889416233</v>
+        <v>0.2131828894161766</v>
       </c>
       <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>0.1356720183933708</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>8.113395699972276</v>
       </c>
     </row>
@@ -872,12 +922,15 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.02332823948866631</v>
+        <v>0.02332823948866221</v>
       </c>
       <c r="E17" t="n">
+        <v>3.556353945149364e-09</v>
+      </c>
+      <c r="F17" t="n">
         <v>0.0008985032053277208</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>9.248009064690713</v>
       </c>
     </row>
@@ -898,12 +951,15 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.08377681876875273</v>
+        <v>-0.08377681876875193</v>
       </c>
       <c r="E18" t="n">
+        <v>3.958477595691459e-100</v>
+      </c>
+      <c r="F18" t="n">
         <v>-0.3371896619192529</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>213.1150157617007</v>
       </c>
     </row>
@@ -924,12 +980,15 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-0.02619032768235773</v>
+        <v>-0.02619032768235073</v>
       </c>
       <c r="E19" t="n">
+        <v>3.339107064200647e-11</v>
+      </c>
+      <c r="F19" t="n">
         <v>-0.008002596889482778</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>101.3970805744419</v>
       </c>
     </row>
@@ -950,12 +1009,15 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-0.04554696161719041</v>
+        <v>-0.0455469616171901</v>
       </c>
       <c r="E20" t="n">
+        <v>9.242140025721765e-31</v>
+      </c>
+      <c r="F20" t="n">
         <v>-1.765401361577383</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>436.9538431848568</v>
       </c>
     </row>
@@ -976,12 +1038,15 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.09413061919251468</v>
+        <v>0.09413061919251645</v>
       </c>
       <c r="E21" t="n">
+        <v>6.591899799065406e-126</v>
+      </c>
+      <c r="F21" t="n">
         <v>0.0238770874884475</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>22.42179404135157</v>
       </c>
     </row>
@@ -1002,12 +1067,15 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.05537059771222554</v>
+        <v>0.05537059771222928</v>
       </c>
       <c r="E22" t="n">
+        <v>1.02193377664243e-44</v>
+      </c>
+      <c r="F22" t="n">
         <v>0.003063189626706707</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>0.7341862810636069</v>
       </c>
     </row>
@@ -1028,12 +1096,15 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.02507443526069938</v>
+        <v>0.02507443526070334</v>
       </c>
       <c r="E23" t="n">
+        <v>2.195752759455381e-10</v>
+      </c>
+      <c r="F23" t="n">
         <v>0.02312096164052165</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>2.856176546811882</v>
       </c>
     </row>
@@ -1054,12 +1125,15 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.2047459074486239</v>
+        <v>0.2047459074486144</v>
       </c>
       <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>0.0102411811780975</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>0.4283858410598737</v>
       </c>
     </row>
@@ -1080,12 +1154,15 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-0.3111347612673485</v>
+        <v>-0.3111347612673457</v>
       </c>
       <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>-0.06934199553241714</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>7.212411242464386</v>
       </c>
     </row>
@@ -1106,12 +1183,15 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.08159727033582263</v>
+        <v>0.08159727033581515</v>
       </c>
       <c r="E26" t="n">
+        <v>1.150683915399669e-92</v>
+      </c>
+      <c r="F26" t="n">
         <v>0.01729563181208699</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>1.980449441489373</v>
       </c>
     </row>
@@ -1132,12 +1212,15 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-0.01444219816951714</v>
+        <v>-0.01444219816951946</v>
       </c>
       <c r="E27" t="n">
+        <v>0.0002602671211056092</v>
+      </c>
+      <c r="F27" t="n">
         <v>-0.2488325874360043</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>170.2653575405311</v>
       </c>
     </row>
@@ -1161,9 +1244,12 @@
         <v>-0.02065987862116193</v>
       </c>
       <c r="E28" t="n">
+        <v>1.746601652812886e-07</v>
+      </c>
+      <c r="F28" t="n">
         <v>-0.08666727915541199</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>115.2103897847748</v>
       </c>
     </row>
@@ -1184,12 +1270,15 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-0.09122379909125646</v>
+        <v>-0.09122379909124725</v>
       </c>
       <c r="E29" t="n">
+        <v>8.056421665121873e-116</v>
+      </c>
+      <c r="F29" t="n">
         <v>-0.03837932003362137</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>44.45149608849334</v>
       </c>
     </row>
@@ -1210,12 +1299,15 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.04030971676149011</v>
+        <v>0.04030971676148344</v>
       </c>
       <c r="E30" t="n">
+        <v>1.828101678015798e-24</v>
+      </c>
+      <c r="F30" t="n">
         <v>0.08251987758713571</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>51.5798735477728</v>
       </c>
     </row>
@@ -1236,12 +1328,15 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-0.1107867962751541</v>
+        <v>-0.1107867962751428</v>
       </c>
       <c r="E31" t="n">
+        <v>2.667619849482775e-170</v>
+      </c>
+      <c r="F31" t="n">
         <v>-0.01621694949726404</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>14.81596923381525</v>
       </c>
     </row>
@@ -1262,12 +1357,15 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.06084742616206362</v>
+        <v>0.06084742616206162</v>
       </c>
       <c r="E32" t="n">
+        <v>1.977015701696959e-53</v>
+      </c>
+      <c r="F32" t="n">
         <v>0.002647954800776878</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>4.005522237587989</v>
       </c>
     </row>
@@ -1288,12 +1386,15 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>-0.08551388462883873</v>
+        <v>-0.08551388462885026</v>
       </c>
       <c r="E33" t="n">
+        <v>1.44432581011741e-101</v>
+      </c>
+      <c r="F33" t="n">
         <v>-0.2985567986354291</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>124.1219902651069</v>
       </c>
     </row>
@@ -1314,12 +1415,15 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-0.1368238529636735</v>
+        <v>-0.1368238529636504</v>
       </c>
       <c r="E34" t="n">
+        <v>1.837944579804374e-258</v>
+      </c>
+      <c r="F34" t="n">
         <v>-0.1246264293330774</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>38.90627230540368</v>
       </c>
     </row>
@@ -1340,12 +1444,15 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.09539692850072576</v>
+        <v>0.09539692850071058</v>
       </c>
       <c r="E35" t="n">
+        <v>3.973073370181098e-126</v>
+      </c>
+      <c r="F35" t="n">
         <v>0.0209290608170584</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>29.05435082866792</v>
       </c>
     </row>
@@ -1366,12 +1473,15 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-0.06850291534815622</v>
+        <v>-0.06850291534817282</v>
       </c>
       <c r="E36" t="n">
+        <v>1.478895169249608e-65</v>
+      </c>
+      <c r="F36" t="n">
         <v>-0.008467267046304018</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>33.37978607077985</v>
       </c>
     </row>
@@ -1392,12 +1502,15 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.1448933124865173</v>
+        <v>0.1448933124865203</v>
       </c>
       <c r="E37" t="n">
+        <v>7.370784570408058e-291</v>
+      </c>
+      <c r="F37" t="n">
         <v>0.09570056215933648</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>86.50830514540735</v>
       </c>
     </row>
@@ -1418,12 +1531,15 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.1196849709851655</v>
+        <v>0.1196849709851514</v>
       </c>
       <c r="E38" t="n">
+        <v>7.951563716192773e-198</v>
+      </c>
+      <c r="F38" t="n">
         <v>0.02812532035794015</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>6.491805645791674</v>
       </c>
     </row>
@@ -1444,12 +1560,15 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.005925885753283147</v>
+        <v>0.005925885753283632</v>
       </c>
       <c r="E39" t="n">
+        <v>0.1395377279192137</v>
+      </c>
+      <c r="F39" t="n">
         <v>0.0006009003391162543</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>11.18197979790203</v>
       </c>
     </row>
@@ -1470,12 +1589,15 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.01453952590895352</v>
+        <v>0.01453952590895499</v>
       </c>
       <c r="E40" t="n">
+        <v>0.000232655085708921</v>
+      </c>
+      <c r="F40" t="n">
         <v>0.004026843309162642</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>139.2142909008818</v>
       </c>
     </row>
@@ -1496,12 +1618,15 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.07778382904780443</v>
+        <v>0.07778382904780505</v>
       </c>
       <c r="E41" t="n">
+        <v>2.407078088579421e-84</v>
+      </c>
+      <c r="F41" t="n">
         <v>0.07560950182188542</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>51.98463018636996</v>
       </c>
     </row>
@@ -1522,12 +1647,15 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.05299145289551482</v>
+        <v>0.05299145289551604</v>
       </c>
       <c r="E42" t="n">
+        <v>6.30681128996804e-40</v>
+      </c>
+      <c r="F42" t="n">
         <v>7.793947884959476</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>-270.6999992097545</v>
       </c>
     </row>
@@ -1548,12 +1676,15 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.01690409445418481</v>
+        <v>0.01690409445418814</v>
       </c>
       <c r="E43" t="n">
+        <v>2.501904449868875e-05</v>
+      </c>
+      <c r="F43" t="n">
         <v>0.004039452672670254</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>13.6256641643991</v>
       </c>
     </row>
@@ -1574,12 +1705,15 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>-0.1064202280752961</v>
+        <v>-0.1064202280752873</v>
       </c>
       <c r="E44" t="n">
+        <v>4.452213547399366e-157</v>
+      </c>
+      <c r="F44" t="n">
         <v>-0.7021009118922275</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>279.2691773651032</v>
       </c>
     </row>
@@ -1600,12 +1734,15 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>-0.1731204793692372</v>
+        <v>-0.1731204793692468</v>
       </c>
       <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>-0.008772974103031416</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>5.114028487841329</v>
       </c>
     </row>
@@ -1626,12 +1763,15 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.06589339721710216</v>
+        <v>0.06589339721709586</v>
       </c>
       <c r="E46" t="n">
+        <v>3.279869393705581e-61</v>
+      </c>
+      <c r="F46" t="n">
         <v>0.009054714334418889</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>13.31712311252617</v>
       </c>
     </row>
@@ -1652,12 +1792,15 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>-0.06172143031724702</v>
+        <v>-0.06172143031724759</v>
       </c>
       <c r="E47" t="n">
+        <v>4.093288197953069e-55</v>
+      </c>
+      <c r="F47" t="n">
         <v>-0.6218141308354785</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>192.8038547947085</v>
       </c>
     </row>
@@ -1678,12 +1821,15 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>-0.1426864716386184</v>
+        <v>-0.142686471638585</v>
       </c>
       <c r="E48" t="n">
+        <v>1.368848263699926e-288</v>
+      </c>
+      <c r="F48" t="n">
         <v>-0.006323723423435669</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>7.319253864674386</v>
       </c>
     </row>
@@ -1704,12 +1850,15 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>-0.01025903627556247</v>
+        <v>-0.01025903627556189</v>
       </c>
       <c r="E49" t="n">
+        <v>0.01037874672969941</v>
+      </c>
+      <c r="F49" t="n">
         <v>-0.002752894523218118</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>6.954328138571279</v>
       </c>
     </row>
@@ -1730,12 +1879,15 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.0079766237671875</v>
+        <v>0.007976623767187038</v>
       </c>
       <c r="E50" t="n">
+        <v>0.04449754753019871</v>
+      </c>
+      <c r="F50" t="n">
         <v>0.004903843901558545</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>1.646358789161123</v>
       </c>
     </row>
@@ -1756,12 +1908,15 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.1443866691268736</v>
+        <v>0.1443866691268627</v>
       </c>
       <c r="E51" t="n">
+        <v>1.096998139575004e-292</v>
+      </c>
+      <c r="F51" t="n">
         <v>0.1905652331484137</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>17.7567636900847</v>
       </c>
     </row>
@@ -1782,12 +1937,15 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>-0.158471429533156</v>
+        <v>-0.1584714295331401</v>
       </c>
       <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
         <v>-232.1228312048322</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>64277.25247112797</v>
       </c>
     </row>
@@ -1808,12 +1966,15 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.02503512430743589</v>
+        <v>0.02503512430743601</v>
       </c>
       <c r="E53" t="n">
+        <v>2.490421613870956e-10</v>
+      </c>
+      <c r="F53" t="n">
         <v>0.01901378311843011</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>2.731843941150243</v>
       </c>
     </row>
@@ -1834,12 +1995,15 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>-0.02655525433039351</v>
+        <v>-0.02655525433039297</v>
       </c>
       <c r="E54" t="n">
+        <v>1.920832980524115e-11</v>
+      </c>
+      <c r="F54" t="n">
         <v>-1.169812651114563</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>658.9405345599433</v>
       </c>
     </row>
@@ -1860,12 +2024,15 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.03735225050371108</v>
+        <v>0.0373522505037112</v>
       </c>
       <c r="E55" t="n">
+        <v>3.639208207508351e-21</v>
+      </c>
+      <c r="F55" t="n">
         <v>0.1790815416317529</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>-4.766306931837463</v>
       </c>
     </row>
@@ -1886,12 +2053,15 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.09400957786413008</v>
+        <v>0.09400957786412921</v>
       </c>
       <c r="E56" t="n">
+        <v>2.647160019277791e-125</v>
+      </c>
+      <c r="F56" t="n">
         <v>15.39127363793062</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>746.9786130239062</v>
       </c>
     </row>
@@ -1912,12 +2082,15 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>-0.1567065361779329</v>
+        <v>-0.1567065361779557</v>
       </c>
       <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
         <v>-0.6140462675498586</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>146.0233341645194</v>
       </c>
     </row>
@@ -1938,12 +2111,15 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>-0.01453648527251973</v>
+        <v>-0.01453648527252182</v>
       </c>
       <c r="E58" t="n">
+        <v>0.001810732174351607</v>
+      </c>
+      <c r="F58" t="n">
         <v>-0.0008434440163389839</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>0.9990693666965795</v>
       </c>
     </row>
@@ -1964,12 +2140,15 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.03971629794147982</v>
+        <v>0.03971629794147625</v>
       </c>
       <c r="E59" t="n">
+        <v>1.930404600503565e-18</v>
+      </c>
+      <c r="F59" t="n">
         <v>0.02195591917496044</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>11.30565512648792</v>
       </c>
     </row>
@@ -1990,12 +2169,15 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>-0.1172640352405521</v>
+        <v>-0.1172640352405569</v>
       </c>
       <c r="E60" t="n">
+        <v>1.433731867844297e-164</v>
+      </c>
+      <c r="F60" t="n">
         <v>-119.830383649312</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>44770.97656289297</v>
       </c>
     </row>
@@ -2016,12 +2198,15 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.01284054643578411</v>
+        <v>0.01284054643578386</v>
       </c>
       <c r="E61" t="n">
+        <v>0.002849601170539149</v>
+      </c>
+      <c r="F61" t="n">
         <v>0.08519379774643274</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>217.2162274635076</v>
       </c>
     </row>
@@ -2042,12 +2227,15 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.02757268783313124</v>
+        <v>0.02757268783313193</v>
       </c>
       <c r="E62" t="n">
+        <v>2.071425581731113e-11</v>
+      </c>
+      <c r="F62" t="n">
         <v>0.0001328392230677535</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>0.04119721188686885</v>
       </c>
     </row>
@@ -2068,12 +2256,15 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.03127162204065997</v>
+        <v>0.03127162204066117</v>
       </c>
       <c r="E63" t="n">
+        <v>2.985106582481967e-14</v>
+      </c>
+      <c r="F63" t="n">
         <v>9.858512248782937e-05</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>0.0294237903725573</v>
       </c>
     </row>
@@ -2094,12 +2285,15 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>-0.000898781302438394</v>
+        <v>-0.0008987813024384078</v>
       </c>
       <c r="E64" t="n">
+        <v>0.8271569354482095</v>
+      </c>
+      <c r="F64" t="n">
         <v>-1.789228635756591e-06</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>0.007082964391153845</v>
       </c>
     </row>
@@ -2120,12 +2314,15 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.08294103105892976</v>
+        <v>0.08294103105892574</v>
       </c>
       <c r="E65" t="n">
+        <v>1.252248009700475e-90</v>
+      </c>
+      <c r="F65" t="n">
         <v>0.001477164348878631</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>0.1304235628538959</v>
       </c>
     </row>
@@ -2146,12 +2343,15 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.01621645432459671</v>
+        <v>0.01621645432459645</v>
       </c>
       <c r="E66" t="n">
+        <v>8.129822825800675e-05</v>
+      </c>
+      <c r="F66" t="n">
         <v>3.805893731235523e-06</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>0.00141926191866017</v>
       </c>
     </row>
@@ -2172,12 +2372,15 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.0799611395237059</v>
+        <v>0.07996113952370758</v>
       </c>
       <c r="E67" t="n">
+        <v>2.390464333354394e-84</v>
+      </c>
+      <c r="F67" t="n">
         <v>0.001371606815037665</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>0.1245420367113213</v>
       </c>
     </row>
@@ -2198,12 +2401,15 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.07497184880997462</v>
+        <v>0.07497184880997343</v>
       </c>
       <c r="E68" t="n">
+        <v>2.379153779266717e-74</v>
+      </c>
+      <c r="F68" t="n">
         <v>0.001137576691131619</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>0.1134353323573154</v>
       </c>
     </row>
@@ -2224,12 +2430,15 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.07045550477703656</v>
+        <v>0.0704555047770284</v>
       </c>
       <c r="E69" t="n">
+        <v>7.64956779174747e-66</v>
+      </c>
+      <c r="F69" t="n">
         <v>0.001015477018808737</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>0.1116037119237935</v>
       </c>
     </row>
@@ -2250,12 +2459,15 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.08783018607801493</v>
+        <v>0.08783018607800608</v>
       </c>
       <c r="E70" t="n">
+        <v>2.059539275034051e-101</v>
+      </c>
+      <c r="F70" t="n">
         <v>0.0001319505273670583</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>-0.001337626814163311</v>
       </c>
     </row>
@@ -2276,12 +2488,15 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.01175751120503498</v>
+        <v>0.0117575112050366</v>
       </c>
       <c r="E71" t="n">
+        <v>0.003862432691564485</v>
+      </c>
+      <c r="F71" t="n">
         <v>0.0001551828729726034</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>0.700070333620717</v>
       </c>
     </row>
@@ -2302,12 +2517,15 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>-0.04142910884777822</v>
+        <v>-0.04142910884778374</v>
       </c>
       <c r="E72" t="n">
+        <v>2.327137156952281e-24</v>
+      </c>
+      <c r="F72" t="n">
         <v>-0.0004004441247167534</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>0.1842982450005083</v>
       </c>
     </row>
@@ -2328,12 +2546,15 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>-0.03080237105788892</v>
+        <v>-0.03080237105788912</v>
       </c>
       <c r="E73" t="n">
+        <v>3.6785372451846e-14</v>
+      </c>
+      <c r="F73" t="n">
         <v>-4.484042190981235e-05</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>0.01159275584045201</v>
       </c>
     </row>
@@ -2354,12 +2575,15 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.009093640439979431</v>
+        <v>0.009093640439979723</v>
       </c>
       <c r="E74" t="n">
+        <v>0.02542211239847053</v>
+      </c>
+      <c r="F74" t="n">
         <v>6.68190272619011e-05</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>0.9295804660892859</v>
       </c>
     </row>
@@ -2380,12 +2604,15 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>-0.02254622294703989</v>
+        <v>-0.02254622294703645</v>
       </c>
       <c r="E75" t="n">
+        <v>3.005918280126939e-08</v>
+      </c>
+      <c r="F75" t="n">
         <v>-0.0001937058390414872</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>0.9656191480887265</v>
       </c>
     </row>
@@ -2406,12 +2633,15 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.09957647093918129</v>
+        <v>0.09957647093916501</v>
       </c>
       <c r="E76" t="n">
+        <v>7.007165589898033e-133</v>
+      </c>
+      <c r="F76" t="n">
         <v>0.0004225816833108218</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>0.01064795093999135</v>
       </c>
     </row>
@@ -2432,12 +2662,15 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.004555414010513655</v>
+        <v>0.004555414010514341</v>
       </c>
       <c r="E77" t="n">
+        <v>0.265570029852627</v>
+      </c>
+      <c r="F77" t="n">
         <v>0.0007973941580578852</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>0.1234428159393968</v>
       </c>
     </row>
@@ -2458,12 +2691,15 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>-0.03585702621607137</v>
+        <v>-0.03585702621606564</v>
       </c>
       <c r="E78" t="n">
+        <v>3.247476948042663e-15</v>
+      </c>
+      <c r="F78" t="n">
         <v>-0.0001001143685292493</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>0.03432994915752333</v>
       </c>
     </row>
@@ -2484,12 +2720,15 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>-0.1848380323089283</v>
+        <v>-0.1848380323089252</v>
       </c>
       <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
         <v>-0.003823442336055028</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>0.6097160446514847</v>
       </c>
     </row>
@@ -2510,12 +2749,15 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>-0.1014335808515766</v>
+        <v>-0.1014335808515816</v>
       </c>
       <c r="E80" t="n">
+        <v>2.346886243792661e-136</v>
+      </c>
+      <c r="F80" t="n">
         <v>-0.002575067761478938</v>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>0.5235529503740266</v>
       </c>
     </row>
@@ -2536,12 +2778,15 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>-0.06111787970461592</v>
+        <v>-0.06111787970461484</v>
       </c>
       <c r="E81" t="n">
+        <v>2.334679537044736e-50</v>
+      </c>
+      <c r="F81" t="n">
         <v>-0.000427941290916924</v>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>0.06325856117200827</v>
       </c>
     </row>
@@ -2562,12 +2807,15 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>-0.1701669784233636</v>
+        <v>-0.1701669784233763</v>
       </c>
       <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
         <v>-0.008263332660768671</v>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>1.53099020177115</v>
       </c>
     </row>
@@ -2588,12 +2836,15 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>-0.003938204158067112</v>
+        <v>-0.003938204158066824</v>
       </c>
       <c r="E83" t="n">
+        <v>0.3364374792148646</v>
+      </c>
+      <c r="F83" t="n">
         <v>-4.237911348710351e-05</v>
       </c>
-      <c r="F83" t="n">
+      <c r="G83" t="n">
         <v>0.02191012145696344</v>
       </c>
     </row>
@@ -2614,12 +2865,15 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.01139672380465034</v>
+        <v>0.0113967238046498</v>
       </c>
       <c r="E84" t="n">
+        <v>0.005406390995770393</v>
+      </c>
+      <c r="F84" t="n">
         <v>0.001844274860457057</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>-0.08889431229306927</v>
       </c>
     </row>
@@ -2640,12 +2894,15 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>-0.3205610385704382</v>
+        <v>-0.3205610385704407</v>
       </c>
       <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
         <v>-0.00223450079238569</v>
       </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
         <v>0.2203557068892615</v>
       </c>
     </row>
@@ -2666,12 +2923,15 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>-0.08754854391411458</v>
+        <v>-0.08754854391411543</v>
       </c>
       <c r="E86" t="n">
+        <v>1.405270595318542e-101</v>
+      </c>
+      <c r="F86" t="n">
         <v>-0.002819863692749181</v>
       </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
         <v>0.6285512342934432</v>
       </c>
     </row>
@@ -2692,12 +2952,15 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>-0.1830877792954647</v>
+        <v>-0.1830877792954745</v>
       </c>
       <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
         <v>-0.01166565880172213</v>
       </c>
-      <c r="F87" t="n">
+      <c r="G87" t="n">
         <v>2.209968437731177</v>
       </c>
     </row>
@@ -2718,12 +2981,15 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>-0.1199799191226232</v>
+        <v>-0.1199799191226188</v>
       </c>
       <c r="E88" t="n">
+        <v>7.25522940884598e-190</v>
+      </c>
+      <c r="F88" t="n">
         <v>-0.001375403057118875</v>
       </c>
-      <c r="F88" t="n">
+      <c r="G88" t="n">
         <v>0.188498451804084</v>
       </c>
     </row>
@@ -2744,12 +3010,15 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>-0.08731619952028853</v>
+        <v>-0.08731619952029507</v>
       </c>
       <c r="E89" t="n">
+        <v>1.062912429624989e-103</v>
+      </c>
+      <c r="F89" t="n">
         <v>-0.0004570310936045309</v>
       </c>
-      <c r="F89" t="n">
+      <c r="G89" t="n">
         <v>0.1010354510345091</v>
       </c>
     </row>
@@ -2770,12 +3039,15 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.003341430700908404</v>
+        <v>0.003341430700908553</v>
       </c>
       <c r="E90" t="n">
+        <v>0.4088376478097595</v>
+      </c>
+      <c r="F90" t="n">
         <v>3.939855650411824e-05</v>
       </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
         <v>0.2416683344359965</v>
       </c>
     </row>
@@ -2796,12 +3068,15 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>-0.004497156343251777</v>
+        <v>-0.004497156343252033</v>
       </c>
       <c r="E91" t="n">
+        <v>0.266302555974944</v>
+      </c>
+      <c r="F91" t="n">
         <v>-6.154677720344033e-05</v>
       </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
         <v>0.6887308842366112</v>
       </c>
     </row>
@@ -2822,12 +3097,15 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>-0.1586713195971042</v>
+        <v>-0.1586713195971161</v>
       </c>
       <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
         <v>-0.002113781535399273</v>
       </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
         <v>0.8422259789424131</v>
       </c>
     </row>
@@ -2848,12 +3126,15 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>-0.06378534753797922</v>
+        <v>-0.06378534753797561</v>
       </c>
       <c r="E93" t="n">
+        <v>5.629358134876594e-56</v>
+      </c>
+      <c r="F93" t="n">
         <v>-0.001073983412015626</v>
       </c>
-      <c r="F93" t="n">
+      <c r="G93" t="n">
         <v>0.7233880891188536</v>
       </c>
     </row>
@@ -2874,12 +3155,15 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.1018723639473421</v>
+        <v>0.101872363947336</v>
       </c>
       <c r="E94" t="n">
+        <v>5.792237124015493e-136</v>
+      </c>
+      <c r="F94" t="n">
         <v>0.0002690489543066045</v>
       </c>
-      <c r="F94" t="n">
+      <c r="G94" t="n">
         <v>0.0172585177474831</v>
       </c>
     </row>
@@ -2900,12 +3184,15 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.0868254284859892</v>
+        <v>0.08682542848598859</v>
       </c>
       <c r="E95" t="n">
+        <v>3.649590981578522e-99</v>
+      </c>
+      <c r="F95" t="n">
         <v>0.0001855671018208587</v>
       </c>
-      <c r="F95" t="n">
+      <c r="G95" t="n">
         <v>0.01614843286939582</v>
       </c>
     </row>
@@ -2926,12 +3213,15 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.04660325956697256</v>
+        <v>0.04660325956697247</v>
       </c>
       <c r="E96" t="n">
+        <v>9.337867704936557e-30</v>
+      </c>
+      <c r="F96" t="n">
         <v>2.718256540576522e-05</v>
       </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
         <v>0.00589373046970987</v>
       </c>
     </row>
@@ -2952,12 +3242,15 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>-0.01722915646461978</v>
+        <v>-0.01722915646462118</v>
       </c>
       <c r="E97" t="n">
+        <v>0.0005366700783660076</v>
+      </c>
+      <c r="F97" t="n">
         <v>-0.00182897612972239</v>
       </c>
-      <c r="F97" t="n">
+      <c r="G97" t="n">
         <v>6.075950432920559</v>
       </c>
     </row>
@@ -2978,12 +3271,15 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.06978315296110539</v>
+        <v>0.06978315296110393</v>
       </c>
       <c r="E98" t="n">
+        <v>4.766413367121214e-47</v>
+      </c>
+      <c r="F98" t="n">
         <v>0.1306382185301417</v>
       </c>
-      <c r="F98" t="n">
+      <c r="G98" t="n">
         <v>46.32900240539988</v>
       </c>
     </row>
@@ -3004,12 +3300,15 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>-0.06339913897302897</v>
+        <v>-0.06339913897302911</v>
       </c>
       <c r="E99" t="n">
+        <v>1.159134788242469e-39</v>
+      </c>
+      <c r="F99" t="n">
         <v>-0.2554542947549986</v>
       </c>
-      <c r="F99" t="n">
+      <c r="G99" t="n">
         <v>208.8708760610544</v>
       </c>
     </row>
@@ -3030,12 +3329,15 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>-0.02148101516920048</v>
+        <v>-0.02148101516919903</v>
       </c>
       <c r="E100" t="n">
+        <v>7.291911494603722e-06</v>
+      </c>
+      <c r="F100" t="n">
         <v>-0.00882209419430964</v>
       </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
         <v>3.968839856281252</v>
       </c>
     </row>
@@ -3056,12 +3358,15 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.2269642543041968</v>
+        <v>0.2269642543041919</v>
       </c>
       <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
         <v>0.01079516570110868</v>
       </c>
-      <c r="F101" t="n">
+      <c r="G101" t="n">
         <v>0.3663905511792637</v>
       </c>
     </row>
@@ -3082,12 +3387,15 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>-0.6527280465620988</v>
+        <v>-0.6527280465621073</v>
       </c>
       <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
         <v>-16967963.5750176</v>
       </c>
-      <c r="F102" t="n">
+      <c r="G102" t="n">
         <v>1471106255.547653</v>
       </c>
     </row>
@@ -3108,12 +3416,15 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>-0.6527280426355235</v>
+        <v>-0.6527280426355431</v>
       </c>
       <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
         <v>-16967.96358292975</v>
       </c>
-      <c r="F103" t="n">
+      <c r="G103" t="n">
         <v>1471106.239871406</v>
       </c>
     </row>
@@ -3134,12 +3445,15 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>-0.09038397512867487</v>
+        <v>-0.09038397512867692</v>
       </c>
       <c r="E104" t="n">
+        <v>1.2987534989773e-44</v>
+      </c>
+      <c r="F104" t="n">
         <v>-0.7183870421005691</v>
       </c>
-      <c r="F104" t="n">
+      <c r="G104" t="n">
         <v>245.6775033061789</v>
       </c>
     </row>
@@ -3160,12 +3474,15 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.05828708670928474</v>
+        <v>0.05828708670928598</v>
       </c>
       <c r="E105" t="n">
+        <v>1.600323355701194e-17</v>
+      </c>
+      <c r="F105" t="n">
         <v>0.0003522505739205648</v>
       </c>
-      <c r="F105" t="n">
+      <c r="G105" t="n">
         <v>0.02847530644530423</v>
       </c>
     </row>
@@ -3186,12 +3503,15 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.07163976542858511</v>
+        <v>0.07163976542857999</v>
       </c>
       <c r="E106" t="n">
+        <v>1.091424456163921e-25</v>
+      </c>
+      <c r="F106" t="n">
         <v>0.001279379983957828</v>
       </c>
-      <c r="F106" t="n">
+      <c r="G106" t="n">
         <v>0.1272386220547658</v>
       </c>
     </row>
@@ -3212,12 +3532,15 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>-0.07282499768629117</v>
+        <v>-0.07282499768628299</v>
       </c>
       <c r="E107" t="n">
+        <v>4.443350717182193e-27</v>
+      </c>
+      <c r="F107" t="n">
         <v>-0.002360347343332357</v>
       </c>
-      <c r="F107" t="n">
+      <c r="G107" t="n">
         <v>4.07831322371748</v>
       </c>
     </row>
@@ -3238,12 +3561,15 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>-0.02441322479568516</v>
+        <v>-0.02441322479568524</v>
       </c>
       <c r="E108" t="n">
+        <v>0.0003083215278230066</v>
+      </c>
+      <c r="F108" t="n">
         <v>-0.08608432814215723</v>
       </c>
-      <c r="F108" t="n">
+      <c r="G108" t="n">
         <v>88.29825931730885</v>
       </c>
     </row>
@@ -3264,12 +3590,15 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>-0.218201898609845</v>
+        <v>-0.2182018986098506</v>
       </c>
       <c r="E109" t="n">
+        <v>3.459403466885588e-233</v>
+      </c>
+      <c r="F109" t="n">
         <v>-0.287684995561607</v>
       </c>
-      <c r="F109" t="n">
+      <c r="G109" t="n">
         <v>41.15710950750878</v>
       </c>
     </row>
@@ -3293,9 +3622,12 @@
         <v>-0.01371791163446763</v>
       </c>
       <c r="E110" t="n">
+        <v>0.04508375023640922</v>
+      </c>
+      <c r="F110" t="n">
         <v>-0.004534730631745769</v>
       </c>
-      <c r="F110" t="n">
+      <c r="G110" t="n">
         <v>2.368695481663584</v>
       </c>
     </row>
@@ -3316,12 +3648,15 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0.1175747228282086</v>
+        <v>0.1175747228282287</v>
       </c>
       <c r="E111" t="n">
+        <v>1.476756181039307e-66</v>
+      </c>
+      <c r="F111" t="n">
         <v>0.002480542912879463</v>
       </c>
-      <c r="F111" t="n">
+      <c r="G111" t="n">
         <v>0.4037883437190289</v>
       </c>
     </row>
@@ -3342,12 +3677,15 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0.0180803795245964</v>
+        <v>0.01808037952459693</v>
       </c>
       <c r="E112" t="n">
+        <v>0.008272881015046168</v>
+      </c>
+      <c r="F112" t="n">
         <v>0.002768598017648346</v>
       </c>
-      <c r="F112" t="n">
+      <c r="G112" t="n">
         <v>3.842996390351309</v>
       </c>
     </row>
@@ -3368,12 +3706,15 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>-0.1035634156264603</v>
+        <v>-0.1035634156264627</v>
       </c>
       <c r="E113" t="n">
+        <v>8.755915542342703e-53</v>
+      </c>
+      <c r="F113" t="n">
         <v>-0.1582410959041165</v>
       </c>
-      <c r="F113" t="n">
+      <c r="G113" t="n">
         <v>34.56188564374057</v>
       </c>
     </row>
@@ -3394,12 +3735,15 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0.05816406177104703</v>
+        <v>0.05816406177104737</v>
       </c>
       <c r="E114" t="n">
+        <v>1.869306324788224e-17</v>
+      </c>
+      <c r="F114" t="n">
         <v>0.003533987893532627</v>
       </c>
-      <c r="F114" t="n">
+      <c r="G114" t="n">
         <v>0.6062487794639229</v>
       </c>
     </row>
@@ -3420,12 +3764,15 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.1049966323236861</v>
+        <v>0.1049966323236909</v>
       </c>
       <c r="E115" t="n">
+        <v>1.901022759492146e-54</v>
+      </c>
+      <c r="F115" t="n">
         <v>0.00302021572188716</v>
       </c>
-      <c r="F115" t="n">
+      <c r="G115" t="n">
         <v>0.2650237676816686</v>
       </c>
     </row>
@@ -3446,12 +3793,15 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0.2240760106613625</v>
+        <v>0.2240760106613641</v>
       </c>
       <c r="E116" t="n">
+        <v>1.187294429242321e-246</v>
+      </c>
+      <c r="F116" t="n">
         <v>0.1751621729071155</v>
       </c>
-      <c r="F116" t="n">
+      <c r="G116" t="n">
         <v>6.100399016883541</v>
       </c>
     </row>
@@ -3472,12 +3822,15 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>-0.01006168802167272</v>
+        <v>-0.01006168802167266</v>
       </c>
       <c r="E117" t="n">
+        <v>0.1374632342706198</v>
+      </c>
+      <c r="F117" t="n">
         <v>-0.0003985579269016616</v>
       </c>
-      <c r="F117" t="n">
+      <c r="G117" t="n">
         <v>9.311572743814201</v>
       </c>
     </row>
@@ -3498,12 +3851,15 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>-0.1403262504583345</v>
+        <v>-0.1403262504583362</v>
       </c>
       <c r="E118" t="n">
+        <v>1.862748032039071e-96</v>
+      </c>
+      <c r="F118" t="n">
         <v>-0.5920178329765665</v>
       </c>
-      <c r="F118" t="n">
+      <c r="G118" t="n">
         <v>222.8925708238683</v>
       </c>
     </row>
@@ -3524,12 +3880,15 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>-0.01113781815911169</v>
+        <v>-0.01113781815911284</v>
       </c>
       <c r="E119" t="n">
+        <v>0.09976753240161547</v>
+      </c>
+      <c r="F119" t="n">
         <v>-0.003447742816890891</v>
       </c>
-      <c r="F119" t="n">
+      <c r="G119" t="n">
         <v>100.99827156054</v>
       </c>
     </row>
@@ -3550,12 +3909,15 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>-0.07758319177011165</v>
+        <v>-0.0775831917701133</v>
       </c>
       <c r="E120" t="n">
+        <v>1.592121646275997e-30</v>
+      </c>
+      <c r="F120" t="n">
         <v>-2.832787808062681</v>
       </c>
-      <c r="F120" t="n">
+      <c r="G120" t="n">
         <v>536.7381047617375</v>
       </c>
     </row>
@@ -3576,12 +3938,15 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.1268870530552312</v>
+        <v>0.1268870530552202</v>
       </c>
       <c r="E121" t="n">
+        <v>6.774392505420652e-79</v>
+      </c>
+      <c r="F121" t="n">
         <v>0.03348392667852414</v>
       </c>
-      <c r="F121" t="n">
+      <c r="G121" t="n">
         <v>21.68564209290333</v>
       </c>
     </row>
@@ -3602,12 +3967,15 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0.07272035091325202</v>
+        <v>0.07272035091325532</v>
       </c>
       <c r="E122" t="n">
+        <v>5.093399549813272e-27</v>
+      </c>
+      <c r="F122" t="n">
         <v>0.004975956073014653</v>
       </c>
-      <c r="F122" t="n">
+      <c r="G122" t="n">
         <v>0.6567962435281304</v>
       </c>
     </row>
@@ -3628,12 +3996,15 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0.008326198273170288</v>
+        <v>0.008326198273170653</v>
       </c>
       <c r="E123" t="n">
+        <v>0.218685050655314</v>
+      </c>
+      <c r="F123" t="n">
         <v>0.00980597195090163</v>
       </c>
-      <c r="F123" t="n">
+      <c r="G123" t="n">
         <v>4.486896137338714</v>
       </c>
     </row>
@@ -3654,12 +4025,15 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0.2000239686454987</v>
+        <v>0.2000239686455116</v>
       </c>
       <c r="E124" t="n">
+        <v>6.22481062330535e-196</v>
+      </c>
+      <c r="F124" t="n">
         <v>0.01242974630300034</v>
       </c>
-      <c r="F124" t="n">
+      <c r="G124" t="n">
         <v>0.3631601881433204</v>
       </c>
     </row>
@@ -3680,12 +4054,15 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>-0.2921665950096096</v>
+        <v>-0.2921665950096147</v>
       </c>
       <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
         <v>-0.07228621665970665</v>
       </c>
-      <c r="F125" t="n">
+      <c r="G125" t="n">
         <v>7.436225495773666</v>
       </c>
     </row>
@@ -3706,12 +4083,15 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0.1126892953911295</v>
+        <v>0.1126892953911321</v>
       </c>
       <c r="E126" t="n">
+        <v>2.949880379114248e-61</v>
+      </c>
+      <c r="F126" t="n">
         <v>0.02412572384151175</v>
       </c>
-      <c r="F126" t="n">
+      <c r="G126" t="n">
         <v>1.436475651022497</v>
       </c>
     </row>
@@ -3732,12 +4112,15 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>-0.04566632454475883</v>
+        <v>-0.04566632454475726</v>
       </c>
       <c r="E127" t="n">
+        <v>1.46418014901999e-11</v>
+      </c>
+      <c r="F127" t="n">
         <v>-0.9297196131918434</v>
       </c>
-      <c r="F127" t="n">
+      <c r="G127" t="n">
         <v>213.5032789986815</v>
       </c>
     </row>
@@ -3758,12 +4141,15 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>-0.01360251449052784</v>
+        <v>-0.01360251449052793</v>
       </c>
       <c r="E128" t="n">
+        <v>0.04486459059116199</v>
+      </c>
+      <c r="F128" t="n">
         <v>-0.06641001450851851</v>
       </c>
-      <c r="F128" t="n">
+      <c r="G128" t="n">
         <v>119.0703670889838</v>
       </c>
     </row>
@@ -3784,12 +4170,15 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>-0.09997421299116714</v>
+        <v>-0.09997421299116686</v>
       </c>
       <c r="E129" t="n">
+        <v>9.336385349008738e-49</v>
+      </c>
+      <c r="F129" t="n">
         <v>-0.04348096786604254</v>
       </c>
-      <c r="F129" t="n">
+      <c r="G129" t="n">
         <v>44.37253060795716</v>
       </c>
     </row>
@@ -3810,12 +4199,15 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0.001242626896767577</v>
+        <v>0.001242626896767471</v>
       </c>
       <c r="E130" t="n">
+        <v>0.8542975469371826</v>
+      </c>
+      <c r="F130" t="n">
         <v>0.002620199291456211</v>
       </c>
-      <c r="F130" t="n">
+      <c r="G130" t="n">
         <v>55.47994195972935</v>
       </c>
     </row>
@@ -3836,12 +4228,15 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>-0.1140352649171312</v>
+        <v>-0.1140352649171306</v>
       </c>
       <c r="E131" t="n">
+        <v>5.513459586639897e-63</v>
+      </c>
+      <c r="F131" t="n">
         <v>-0.01730447674682695</v>
       </c>
-      <c r="F131" t="n">
+      <c r="G131" t="n">
         <v>14.6765507933243</v>
       </c>
     </row>
@@ -3862,12 +4257,15 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0.08098038014340907</v>
+        <v>0.08098038014341052</v>
       </c>
       <c r="E132" t="n">
+        <v>4.464248203001886e-33</v>
+      </c>
+      <c r="F132" t="n">
         <v>0.003537800204366366</v>
       </c>
-      <c r="F132" t="n">
+      <c r="G132" t="n">
         <v>3.956499203497544</v>
       </c>
     </row>
@@ -3888,12 +4286,15 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>-0.1215979392415778</v>
+        <v>-0.1215979392415784</v>
       </c>
       <c r="E133" t="n">
+        <v>3.772180749814561e-71</v>
+      </c>
+      <c r="F133" t="n">
         <v>-0.4349900799805976</v>
       </c>
-      <c r="F133" t="n">
+      <c r="G133" t="n">
         <v>126.4331638500862</v>
       </c>
     </row>
@@ -3914,12 +4315,15 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>-0.1806263100480388</v>
+        <v>-0.1806263100480491</v>
       </c>
       <c r="E134" t="n">
+        <v>6.231730909264297e-156</v>
+      </c>
+      <c r="F134" t="n">
         <v>-0.1737726120516778</v>
       </c>
-      <c r="F134" t="n">
+      <c r="G134" t="n">
         <v>41.46524085147318</v>
       </c>
     </row>
@@ -3940,12 +4344,15 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0.1043783375329118</v>
+        <v>0.1043783375329203</v>
       </c>
       <c r="E135" t="n">
+        <v>7.420450947975755e-53</v>
+      </c>
+      <c r="F135" t="n">
         <v>0.0231639947273658</v>
       </c>
-      <c r="F135" t="n">
+      <c r="G135" t="n">
         <v>28.83229402250939</v>
       </c>
     </row>
@@ -3966,12 +4373,15 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>-0.05597175642545044</v>
+        <v>-0.05597175642545225</v>
       </c>
       <c r="E136" t="n">
+        <v>3.367763524446004e-16</v>
+      </c>
+      <c r="F136" t="n">
         <v>-0.006930748563044695</v>
       </c>
-      <c r="F136" t="n">
+      <c r="G136" t="n">
         <v>33.1086071105448</v>
       </c>
     </row>
@@ -3992,12 +4402,15 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0.163325730920047</v>
+        <v>0.1633257309200506</v>
       </c>
       <c r="E137" t="n">
+        <v>4.731370401038658e-128</v>
+      </c>
+      <c r="F137" t="n">
         <v>0.1069877232737283</v>
       </c>
-      <c r="F137" t="n">
+      <c r="G137" t="n">
         <v>85.99795492637355</v>
       </c>
     </row>
@@ -4018,12 +4431,15 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0.1734567003676566</v>
+        <v>0.1734567003676778</v>
       </c>
       <c r="E138" t="n">
+        <v>9.017925979860367e-144</v>
+      </c>
+      <c r="F138" t="n">
         <v>0.0433613208413204</v>
       </c>
-      <c r="F138" t="n">
+      <c r="G138" t="n">
         <v>5.490648148426281</v>
       </c>
     </row>
@@ -4044,12 +4460,15 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>-0.02029689759354936</v>
+        <v>-0.02029689759354901</v>
       </c>
       <c r="E139" t="n">
+        <v>0.003233954068166864</v>
+      </c>
+      <c r="F139" t="n">
         <v>-0.002038182801867234</v>
       </c>
-      <c r="F139" t="n">
+      <c r="G139" t="n">
         <v>11.44765841333236</v>
       </c>
     </row>
@@ -4070,12 +4489,15 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0.02918662869253646</v>
+        <v>0.02918662869253713</v>
       </c>
       <c r="E140" t="n">
+        <v>1.60271328221436e-05</v>
+      </c>
+      <c r="F140" t="n">
         <v>0.008301648037739274</v>
       </c>
-      <c r="F140" t="n">
+      <c r="G140" t="n">
         <v>138.8975757206799</v>
       </c>
     </row>
@@ -4096,12 +4518,15 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0.1000646122798724</v>
+        <v>0.1000646122798758</v>
       </c>
       <c r="E141" t="n">
+        <v>1.337323705347468e-48</v>
+      </c>
+      <c r="F141" t="n">
         <v>0.1031966247900725</v>
       </c>
-      <c r="F141" t="n">
+      <c r="G141" t="n">
         <v>50.97240248505145</v>
       </c>
     </row>
@@ -4122,12 +4547,15 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0.08336287425832981</v>
+        <v>0.08336287425832811</v>
       </c>
       <c r="E142" t="n">
+        <v>1.512433035608613e-34</v>
+      </c>
+      <c r="F142" t="n">
         <v>19.39839144478767</v>
       </c>
-      <c r="F142" t="n">
+      <c r="G142" t="n">
         <v>-854.4287665388204</v>
       </c>
     </row>
@@ -4148,12 +4576,15 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>-0.01997882219652578</v>
+        <v>-0.01997882219652598</v>
       </c>
       <c r="E143" t="n">
+        <v>0.003751257462640004</v>
+      </c>
+      <c r="F143" t="n">
         <v>-0.004763788652404164</v>
       </c>
-      <c r="F143" t="n">
+      <c r="G143" t="n">
         <v>14.39746450097652</v>
       </c>
     </row>
@@ -4174,12 +4605,15 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>-0.1192336002484311</v>
+        <v>-0.1192336002484344</v>
       </c>
       <c r="E144" t="n">
+        <v>1.103479808284152e-68</v>
+      </c>
+      <c r="F144" t="n">
         <v>-0.7803292669660793</v>
       </c>
-      <c r="F144" t="n">
+      <c r="G144" t="n">
         <v>278.8358146899394</v>
       </c>
     </row>
@@ -4200,12 +4634,15 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>-0.1909363463057955</v>
+        <v>-0.1909363463057991</v>
       </c>
       <c r="E145" t="n">
+        <v>3.653253783503644e-175</v>
+      </c>
+      <c r="F145" t="n">
         <v>-0.009802759157205559</v>
       </c>
-      <c r="F145" t="n">
+      <c r="G145" t="n">
         <v>5.125451213998607</v>
       </c>
     </row>
@@ -4226,12 +4663,15 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0.03757068890741525</v>
+        <v>0.03757068890741484</v>
       </c>
       <c r="E146" t="n">
+        <v>3.733772629418777e-08</v>
+      </c>
+      <c r="F146" t="n">
         <v>0.005901531273281638</v>
       </c>
-      <c r="F146" t="n">
+      <c r="G146" t="n">
         <v>13.73775795455325</v>
       </c>
     </row>
@@ -4252,12 +4692,15 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>-0.09432760295498585</v>
+        <v>-0.09432760295498745</v>
       </c>
       <c r="E147" t="n">
+        <v>2.351225702549286e-44</v>
+      </c>
+      <c r="F147" t="n">
         <v>-0.9315115557164187</v>
       </c>
-      <c r="F147" t="n">
+      <c r="G147" t="n">
         <v>217.1606305198341</v>
       </c>
     </row>
@@ -4278,12 +4721,15 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>-0.1623868370047474</v>
+        <v>-0.1623868370047471</v>
       </c>
       <c r="E148" t="n">
+        <v>6.101533209909241e-129</v>
+      </c>
+      <c r="F148" t="n">
         <v>-0.007348356506429314</v>
       </c>
-      <c r="F148" t="n">
+      <c r="G148" t="n">
         <v>7.368417371059115</v>
       </c>
     </row>
@@ -4304,12 +4750,15 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0.007289520101342498</v>
+        <v>0.007289520101342729</v>
       </c>
       <c r="E149" t="n">
+        <v>0.2869345017731745</v>
+      </c>
+      <c r="F149" t="n">
         <v>0.002734810242873041</v>
       </c>
-      <c r="F149" t="n">
+      <c r="G149" t="n">
         <v>6.735580870607582</v>
       </c>
     </row>
@@ -4330,12 +4779,15 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>-0.03053220622198205</v>
+        <v>-0.03053220622198257</v>
       </c>
       <c r="E150" t="n">
+        <v>6.827941269738493e-06</v>
+      </c>
+      <c r="F150" t="n">
         <v>-0.01952921238397629</v>
       </c>
-      <c r="F150" t="n">
+      <c r="G150" t="n">
         <v>3.358469953500641</v>
       </c>
     </row>
@@ -4356,12 +4808,15 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0.1712833278642965</v>
+        <v>0.1712833278642942</v>
       </c>
       <c r="E151" t="n">
+        <v>1.472688380308947e-142</v>
+      </c>
+      <c r="F151" t="n">
         <v>0.2280494304788867</v>
       </c>
-      <c r="F151" t="n">
+      <c r="G151" t="n">
         <v>14.33786819237295</v>
       </c>
     </row>
@@ -4382,12 +4837,15 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>-0.1876271211646799</v>
+        <v>-0.1876271211646829</v>
       </c>
       <c r="E152" t="n">
+        <v>6.172781478501637e-172</v>
+      </c>
+      <c r="F152" t="n">
         <v>-254.442310998276</v>
       </c>
-      <c r="F152" t="n">
+      <c r="G152" t="n">
         <v>64545.63832826901</v>
       </c>
     </row>
@@ -4408,12 +4866,15 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0.01503990787807361</v>
+        <v>0.01503990787807446</v>
       </c>
       <c r="E153" t="n">
+        <v>0.02634950523298079</v>
+      </c>
+      <c r="F153" t="n">
         <v>0.01705514876447253</v>
       </c>
-      <c r="F153" t="n">
+      <c r="G153" t="n">
         <v>3.219357641349073</v>
       </c>
     </row>
@@ -4434,12 +4895,15 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>-0.04282697833935394</v>
+        <v>-0.0428269783393552</v>
       </c>
       <c r="E154" t="n">
+        <v>2.499281216514058e-10</v>
+      </c>
+      <c r="F154" t="n">
         <v>-2.467818152547807</v>
       </c>
-      <c r="F154" t="n">
+      <c r="G154" t="n">
         <v>815.5649470566021</v>
       </c>
     </row>
@@ -4460,12 +4924,15 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0.02800574591411071</v>
+        <v>0.02800574591411068</v>
       </c>
       <c r="E155" t="n">
+        <v>3.529020319445986e-05</v>
+      </c>
+      <c r="F155" t="n">
         <v>0.1896098401270297</v>
       </c>
-      <c r="F155" t="n">
+      <c r="G155" t="n">
         <v>-4.582683807831176</v>
       </c>
     </row>
@@ -4486,12 +4953,15 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0.07555923027563841</v>
+        <v>0.0755592302756431</v>
       </c>
       <c r="E156" t="n">
+        <v>5.492877384828967e-29</v>
+      </c>
+      <c r="F156" t="n">
         <v>16.59208290421448</v>
       </c>
-      <c r="F156" t="n">
+      <c r="G156" t="n">
         <v>874.0066543106113</v>
       </c>
     </row>
@@ -4512,12 +4982,15 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>-0.1534092062917233</v>
+        <v>-0.1534092062917243</v>
       </c>
       <c r="E157" t="n">
+        <v>6.25862447427975e-115</v>
+      </c>
+      <c r="F157" t="n">
         <v>-0.5834525978280422</v>
       </c>
-      <c r="F157" t="n">
+      <c r="G157" t="n">
         <v>140.4621577733848</v>
       </c>
     </row>
@@ -4538,12 +5011,15 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>-0.0908414417829277</v>
+        <v>-0.09084144178292716</v>
       </c>
       <c r="E158" t="n">
+        <v>2.337459703983649e-31</v>
+      </c>
+      <c r="F158" t="n">
         <v>-0.004971208746904082</v>
       </c>
-      <c r="F158" t="n">
+      <c r="G158" t="n">
         <v>1.263148014196543</v>
       </c>
     </row>
@@ -4564,12 +5040,15 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0.02635005983524208</v>
+        <v>0.02635005983524308</v>
       </c>
       <c r="E159" t="n">
+        <v>0.0005419030990365288</v>
+      </c>
+      <c r="F159" t="n">
         <v>0.0167244091146875</v>
       </c>
-      <c r="F159" t="n">
+      <c r="G159" t="n">
         <v>12.71258717195579</v>
       </c>
     </row>
@@ -4590,12 +5069,15 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>-0.1351176755528726</v>
+        <v>-0.1351176755528687</v>
       </c>
       <c r="E160" t="n">
+        <v>6.417185364711814e-73</v>
+      </c>
+      <c r="F160" t="n">
         <v>-132.6809865889818</v>
       </c>
-      <c r="F160" t="n">
+      <c r="G160" t="n">
         <v>44548.34492258424</v>
       </c>
     </row>
@@ -4616,12 +5098,15 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>-0.04483454124775088</v>
+        <v>-0.0448345412477487</v>
       </c>
       <c r="E161" t="n">
+        <v>2.392874700360918e-09</v>
+      </c>
+      <c r="F161" t="n">
         <v>-0.2734943362111558</v>
       </c>
-      <c r="F161" t="n">
+      <c r="G161" t="n">
         <v>241.5882964620428</v>
       </c>
     </row>
@@ -4642,12 +5127,15 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0.0288759406183904</v>
+        <v>0.02887594061839072</v>
       </c>
       <c r="E162" t="n">
+        <v>4.830231070323358e-05</v>
+      </c>
+      <c r="F162" t="n">
         <v>0.0001865677475825551</v>
       </c>
-      <c r="F162" t="n">
+      <c r="G162" t="n">
         <v>0.03846435281630178</v>
       </c>
     </row>
@@ -4668,12 +5156,15 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0.04182240926915202</v>
+        <v>0.04182240926915364</v>
       </c>
       <c r="E163" t="n">
+        <v>3.947096776003412e-09</v>
+      </c>
+      <c r="F163" t="n">
         <v>0.0001493753432228372</v>
       </c>
-      <c r="F163" t="n">
+      <c r="G163" t="n">
         <v>0.0270620652604317</v>
       </c>
     </row>
@@ -4694,12 +5185,15 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>-0.005480015592933676</v>
+        <v>-0.005480015592933843</v>
       </c>
       <c r="E164" t="n">
+        <v>0.4407269207928924</v>
+      </c>
+      <c r="F164" t="n">
         <v>-1.752437191035793e-05</v>
       </c>
-      <c r="F164" t="n">
+      <c r="G164" t="n">
         <v>0.008277899306912556</v>
       </c>
     </row>
@@ -4720,12 +5214,15 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0.04847639451707889</v>
+        <v>0.04847639451707966</v>
       </c>
       <c r="E165" t="n">
+        <v>8.814447289506001e-12</v>
+      </c>
+      <c r="F165" t="n">
         <v>0.0008653544634890805</v>
       </c>
-      <c r="F165" t="n">
+      <c r="G165" t="n">
         <v>0.1714724714880124</v>
       </c>
     </row>
@@ -4746,12 +5243,15 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0.01238273378000147</v>
+        <v>0.01238273378000184</v>
       </c>
       <c r="E166" t="n">
+        <v>0.08157607278032562</v>
+      </c>
+      <c r="F166" t="n">
         <v>3.359096192145615e-06</v>
       </c>
-      <c r="F166" t="n">
+      <c r="G166" t="n">
         <v>0.001418688284147437</v>
       </c>
     </row>
@@ -4772,12 +5272,15 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0.04687082926828981</v>
+        <v>0.04687082926829185</v>
       </c>
       <c r="E167" t="n">
+        <v>4.23292226783201e-11</v>
+      </c>
+      <c r="F167" t="n">
         <v>0.0008025358450534599</v>
       </c>
-      <c r="F167" t="n">
+      <c r="G167" t="n">
         <v>0.1629272692345173</v>
       </c>
     </row>
@@ -4798,12 +5301,15 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0.1147102831860408</v>
+        <v>0.1147102831860398</v>
       </c>
       <c r="E168" t="n">
+        <v>5.630675243615808e-59</v>
+      </c>
+      <c r="F168" t="n">
         <v>0.001842230447576587</v>
       </c>
-      <c r="F168" t="n">
+      <c r="G168" t="n">
         <v>0.07865497202483238</v>
       </c>
     </row>
@@ -4824,12 +5330,15 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0.113602672855194</v>
+        <v>0.1136026728551906</v>
       </c>
       <c r="E169" t="n">
+        <v>7.228236988552415e-58</v>
+      </c>
+      <c r="F169" t="n">
         <v>0.00172194146213099</v>
       </c>
-      <c r="F169" t="n">
+      <c r="G169" t="n">
         <v>0.0763384394499247</v>
       </c>
     </row>
@@ -4850,12 +5359,15 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0.09103357097707986</v>
+        <v>0.09103357097707762</v>
       </c>
       <c r="E170" t="n">
+        <v>1.047288905892387e-37</v>
+      </c>
+      <c r="F170" t="n">
         <v>0.0001506148698348195</v>
       </c>
-      <c r="F170" t="n">
+      <c r="G170" t="n">
         <v>-0.002252576252690049</v>
       </c>
     </row>
@@ -4876,12 +5388,15 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>0.05966099033951178</v>
+        <v>0.05966099033951129</v>
       </c>
       <c r="E171" t="n">
+        <v>1.918394865264115e-17</v>
+      </c>
+      <c r="F171" t="n">
         <v>0.0007304881704089308</v>
       </c>
-      <c r="F171" t="n">
+      <c r="G171" t="n">
         <v>0.6660908244186453</v>
       </c>
     </row>
@@ -4902,12 +5417,15 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>-0.07851232213684423</v>
+        <v>-0.07851232213684452</v>
       </c>
       <c r="E172" t="n">
+        <v>4.49820878232014e-29</v>
+      </c>
+      <c r="F172" t="n">
         <v>-0.0007091384452058363</v>
       </c>
-      <c r="F172" t="n">
+      <c r="G172" t="n">
         <v>0.2044112626578866</v>
       </c>
     </row>
@@ -4928,12 +5446,15 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>-0.02215968766351535</v>
+        <v>-0.02215968766351447</v>
       </c>
       <c r="E173" t="n">
+        <v>0.001614580096685007</v>
+      </c>
+      <c r="F173" t="n">
         <v>-3.587221743578015e-05</v>
       </c>
-      <c r="F173" t="n">
+      <c r="G173" t="n">
         <v>0.01095085642440816</v>
       </c>
     </row>
@@ -4954,12 +5475,15 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>-0.02263798956450232</v>
+        <v>-0.02263798956450107</v>
       </c>
       <c r="E174" t="n">
+        <v>0.001275935253590202</v>
+      </c>
+      <c r="F174" t="n">
         <v>-0.0001578035979164494</v>
       </c>
-      <c r="F174" t="n">
+      <c r="G174" t="n">
         <v>0.9449142907069965</v>
       </c>
     </row>
@@ -4980,12 +5504,15 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>0.01419006657222232</v>
+        <v>0.01419006657222271</v>
       </c>
       <c r="E175" t="n">
+        <v>0.0434033784537667</v>
+      </c>
+      <c r="F175" t="n">
         <v>0.0001093493888688529</v>
       </c>
-      <c r="F175" t="n">
+      <c r="G175" t="n">
         <v>0.9462382678594323</v>
       </c>
     </row>
@@ -5006,12 +5533,15 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>0.07286457197779429</v>
+        <v>0.07286457197779543</v>
       </c>
       <c r="E176" t="n">
+        <v>2.908036393469219e-25</v>
+      </c>
+      <c r="F176" t="n">
         <v>0.0003046153400626307</v>
       </c>
-      <c r="F176" t="n">
+      <c r="G176" t="n">
         <v>0.01724925552890467</v>
       </c>
     </row>
@@ -5032,12 +5562,15 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>0.01063545871660666</v>
+        <v>0.01063545871660642</v>
       </c>
       <c r="E177" t="n">
+        <v>0.1294022856645472</v>
+      </c>
+      <c r="F177" t="n">
         <v>0.002914325615471045</v>
       </c>
-      <c r="F177" t="n">
+      <c r="G177" t="n">
         <v>-0.01833912668603849</v>
       </c>
     </row>
@@ -5058,12 +5591,15 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>-0.06882656378557261</v>
+        <v>-0.06882656378557511</v>
       </c>
       <c r="E178" t="n">
+        <v>1.092266957911825e-18</v>
+      </c>
+      <c r="F178" t="n">
         <v>-0.0002175855880888046</v>
       </c>
-      <c r="F178" t="n">
+      <c r="G178" t="n">
         <v>0.04334099446173496</v>
       </c>
     </row>
@@ -5084,12 +5620,15 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>-0.2670879216932179</v>
+        <v>-0.2670879216932229</v>
       </c>
       <c r="E179" t="n">
+        <v>0</v>
+      </c>
+      <c r="F179" t="n">
         <v>-0.005197796273210194</v>
       </c>
-      <c r="F179" t="n">
+      <c r="G179" t="n">
         <v>0.7000447726527479</v>
       </c>
     </row>
@@ -5110,12 +5649,15 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>-0.1094588849110091</v>
+        <v>-0.1094588849110067</v>
       </c>
       <c r="E180" t="n">
+        <v>3.126096788665791e-55</v>
+      </c>
+      <c r="F180" t="n">
         <v>-0.003017167440970896</v>
       </c>
-      <c r="F180" t="n">
+      <c r="G180" t="n">
         <v>0.5638396471527929</v>
       </c>
     </row>
@@ -5136,12 +5678,15 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>-0.06717930771894118</v>
+        <v>-0.06717930771894369</v>
       </c>
       <c r="E181" t="n">
+        <v>1.106296798731527e-21</v>
+      </c>
+      <c r="F181" t="n">
         <v>-0.0004968528786659387</v>
       </c>
-      <c r="F181" t="n">
+      <c r="G181" t="n">
         <v>0.0710564333810767</v>
       </c>
     </row>
@@ -5162,12 +5707,15 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>-0.2186167192385493</v>
+        <v>-0.2186167192385476</v>
       </c>
       <c r="E182" t="n">
+        <v>1.625102192071878e-218</v>
+      </c>
+      <c r="F182" t="n">
         <v>-0.01013620771025947</v>
       </c>
-      <c r="F182" t="n">
+      <c r="G182" t="n">
         <v>1.630456161951871</v>
       </c>
     </row>
@@ -5188,12 +5736,15 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>-0.02009686433844123</v>
+        <v>-0.02009686433844146</v>
       </c>
       <c r="E183" t="n">
+        <v>0.004187417463033558</v>
+      </c>
+      <c r="F183" t="n">
         <v>-0.0002112271392096784</v>
       </c>
-      <c r="F183" t="n">
+      <c r="G183" t="n">
         <v>0.03157455790176464</v>
       </c>
     </row>
@@ -5214,12 +5765,15 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>0.01563393721001476</v>
+        <v>0.0156339372100144</v>
       </c>
       <c r="E184" t="n">
+        <v>0.02590341385567951</v>
+      </c>
+      <c r="F184" t="n">
         <v>0.004156794496236095</v>
       </c>
-      <c r="F184" t="n">
+      <c r="G184" t="n">
         <v>-0.2353374194771675</v>
       </c>
     </row>
@@ -5240,12 +5794,15 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>-0.3664386418831901</v>
+        <v>-0.3664386418832012</v>
       </c>
       <c r="E185" t="n">
+        <v>0</v>
+      </c>
+      <c r="F185" t="n">
         <v>-0.002392166641607715</v>
       </c>
-      <c r="F185" t="n">
+      <c r="G185" t="n">
         <v>0.2321886228399306</v>
       </c>
     </row>
@@ -5266,12 +5823,15 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>-0.07360172892883765</v>
+        <v>-0.07360172892884091</v>
       </c>
       <c r="E186" t="n">
+        <v>1.029702486675685e-25</v>
+      </c>
+      <c r="F186" t="n">
         <v>-0.002194877009856922</v>
       </c>
-      <c r="F186" t="n">
+      <c r="G186" t="n">
         <v>0.5601810013162264</v>
       </c>
     </row>
@@ -5292,12 +5852,15 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>-0.2188411540628733</v>
+        <v>-0.2188411540628702</v>
       </c>
       <c r="E187" t="n">
+        <v>5.691523806175989e-219</v>
+      </c>
+      <c r="F187" t="n">
         <v>-0.01414764462371432</v>
       </c>
-      <c r="F187" t="n">
+      <c r="G187" t="n">
         <v>2.362464534686216</v>
       </c>
     </row>
@@ -5318,12 +5881,15 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>-0.1372044325613078</v>
+        <v>-0.137204432561312</v>
       </c>
       <c r="E188" t="n">
+        <v>6.792526914490623e-86</v>
+      </c>
+      <c r="F188" t="n">
         <v>-0.001486659340342615</v>
       </c>
-      <c r="F188" t="n">
+      <c r="G188" t="n">
         <v>0.1943908369610216</v>
       </c>
     </row>
@@ -5344,12 +5910,15 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>-0.06765649561379695</v>
+        <v>-0.0676564956137979</v>
       </c>
       <c r="E189" t="n">
+        <v>1.607887639760711e-22</v>
+      </c>
+      <c r="F189" t="n">
         <v>-0.0003648831334909925</v>
       </c>
-      <c r="F189" t="n">
+      <c r="G189" t="n">
         <v>0.09271656629393603</v>
       </c>
     </row>
@@ -5370,12 +5939,15 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>0.04078377754615806</v>
+        <v>0.04078377754615868</v>
       </c>
       <c r="E190" t="n">
+        <v>4.066443774543148e-09</v>
+      </c>
+      <c r="F190" t="n">
         <v>0.0004886374151883498</v>
       </c>
-      <c r="F190" t="n">
+      <c r="G190" t="n">
         <v>0.2198969167927686</v>
       </c>
     </row>
@@ -5396,12 +5968,15 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>-0.04638904432585928</v>
+        <v>-0.04638904432585921</v>
       </c>
       <c r="E191" t="n">
+        <v>2.222162117325292e-11</v>
+      </c>
+      <c r="F191" t="n">
         <v>-0.0006428065757379214</v>
       </c>
-      <c r="F191" t="n">
+      <c r="G191" t="n">
         <v>0.7169222237042657</v>
       </c>
     </row>
@@ -5422,12 +5997,15 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>-0.1458761320828058</v>
+        <v>-0.1458761320828046</v>
       </c>
       <c r="E192" t="n">
+        <v>3.313710213426917e-99</v>
+      </c>
+      <c r="F192" t="n">
         <v>-0.001959529773589554</v>
       </c>
-      <c r="F192" t="n">
+      <c r="G192" t="n">
         <v>0.8308139448146992</v>
       </c>
     </row>
@@ -5448,12 +6026,15 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>-0.0614970313811392</v>
+        <v>-0.06149703138113981</v>
       </c>
       <c r="E193" t="n">
+        <v>7.510175101835195e-19</v>
+      </c>
+      <c r="F193" t="n">
         <v>-0.001086180289645819</v>
       </c>
-      <c r="F193" t="n">
+      <c r="G193" t="n">
         <v>0.7242796821604564</v>
       </c>
     </row>
@@ -5474,12 +6055,15 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>0.06198103205461074</v>
+        <v>0.06198103205461142</v>
       </c>
       <c r="E194" t="n">
+        <v>2.566472191687262e-18</v>
+      </c>
+      <c r="F194" t="n">
         <v>0.0001568152935122356</v>
       </c>
-      <c r="F194" t="n">
+      <c r="G194" t="n">
         <v>0.02407086426555499</v>
       </c>
     </row>
@@ -5500,12 +6084,15 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>0.1383237339766285</v>
+        <v>0.1383237339766283</v>
       </c>
       <c r="E195" t="n">
+        <v>3.651174360017843e-85</v>
+      </c>
+      <c r="F195" t="n">
         <v>0.0002932009971352789</v>
       </c>
-      <c r="F195" t="n">
+      <c r="G195" t="n">
         <v>0.01008161472146273</v>
       </c>
     </row>
@@ -5526,12 +6113,15 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>0.05227303113981511</v>
+        <v>0.05227303113981657</v>
       </c>
       <c r="E196" t="n">
+        <v>1.841183589507099e-13</v>
+      </c>
+      <c r="F196" t="n">
         <v>3.365794579213309e-05</v>
       </c>
-      <c r="F196" t="n">
+      <c r="G196" t="n">
         <v>0.0053902550003264</v>
       </c>
     </row>
@@ -5552,12 +6142,15 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>-0.03099883459673601</v>
+        <v>-0.03099883459673645</v>
       </c>
       <c r="E197" t="n">
+        <v>0.0004336649328147735</v>
+      </c>
+      <c r="F197" t="n">
         <v>-0.003248630921173456</v>
       </c>
-      <c r="F197" t="n">
+      <c r="G197" t="n">
         <v>6.266308283356532</v>
       </c>
     </row>
@@ -5578,12 +6171,15 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>0.07523660284210493</v>
+        <v>0.07523660284210346</v>
       </c>
       <c r="E198" t="n">
+        <v>4.453251222364892e-19</v>
+      </c>
+      <c r="F198" t="n">
         <v>0.1279710248849249</v>
       </c>
-      <c r="F198" t="n">
+      <c r="G198" t="n">
         <v>43.13664994891279</v>
       </c>
     </row>
@@ -5604,12 +6200,15 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>-0.06894597096651831</v>
+        <v>-0.06894597096651756</v>
       </c>
       <c r="E199" t="n">
+        <v>9.437558135506312e-17</v>
+      </c>
+      <c r="F199" t="n">
         <v>-0.3040683884444399</v>
       </c>
-      <c r="F199" t="n">
+      <c r="G199" t="n">
         <v>203.7550963575885</v>
       </c>
     </row>
@@ -5630,12 +6229,15 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>0.0303364937038165</v>
+        <v>0.03033649370381699</v>
       </c>
       <c r="E200" t="n">
+        <v>0.0002474870650231648</v>
+      </c>
+      <c r="F200" t="n">
         <v>0.0129336770522265</v>
       </c>
-      <c r="F200" t="n">
+      <c r="G200" t="n">
         <v>2.593373154185834</v>
       </c>
     </row>
@@ -5656,12 +6258,15 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>0.1974573706963212</v>
+        <v>0.197457370696321</v>
       </c>
       <c r="E201" t="n">
+        <v>3.037121371454074e-128</v>
+      </c>
+      <c r="F201" t="n">
         <v>0.01231645803739311</v>
       </c>
-      <c r="F201" t="n">
+      <c r="G201" t="n">
         <v>0.3302803489233482</v>
       </c>
     </row>
